--- a/Business/main form.xlsx
+++ b/Business/main form.xlsx
@@ -3,21 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18834312-CA01-4C7F-99F7-C55B5503555E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD29049-FED2-41D7-AEAA-BBCED4A8F238}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
     <sheet name="Quản lý đơn" sheetId="3" r:id="rId2"/>
     <sheet name="Quản lý fee" sheetId="4" r:id="rId3"/>
-    <sheet name="Yêu cầu  Order" sheetId="2" r:id="rId4"/>
+    <sheet name="Tra cứu" sheetId="2" r:id="rId4"/>
     <sheet name="Theo dõi" sheetId="5" r:id="rId5"/>
+    <sheet name="Câu hỏi" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="179021" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -190,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>NỘP ĐƠN / I-APPLICATION</t>
   </si>
@@ -507,6 +513,15 @@
   </si>
   <si>
     <t>3 mục này là 3 chủ đề chính trong theo dõi. Có thể thêm chủ đề.</t>
+  </si>
+  <si>
+    <t>Chủ để</t>
+  </si>
+  <si>
+    <t>nội dung</t>
+  </si>
+  <si>
+    <t>Nội dung trả lời</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
@@ -1447,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A7336B-900F-4E39-AF77-0887FC5984B5}">
   <dimension ref="A4:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:S16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,4 +2499,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE4974E-C396-46A1-9E09-2E14CF2E9E11}">
+  <dimension ref="A7:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>